--- a/Outputs/Gas Transfer Velocity/Raymond Method/Raymond Paper Method7_18.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Method/Raymond Paper Method7_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\Raymond Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37422D-CE3F-4AE4-ABF7-6F56739BEB23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B7DB7-83D1-4FF9-8EF1-702C5BE8F5A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E233504B-0B55-4246-9B4B-72EFC75EC46E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Position</t>
   </si>
@@ -160,16 +160,26 @@
   </si>
   <si>
     <t>Depth/2 (m)</t>
+  </si>
+  <si>
+    <t>Velocity Corrected (m/s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,9 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61FEB14-9CCA-4271-93D5-A81362C983DC}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,11 +539,12 @@
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" customWidth="1"/>
     <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" customWidth="1"/>
     <col min="13" max="13" width="18.26953125" customWidth="1"/>
     <col min="14" max="14" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="K1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,9 +592,8 @@
       <c r="C2">
         <v>-0.513428</v>
       </c>
-      <c r="D2">
-        <f>ABS(C2/B2)</f>
-        <v>0.10066327480908546</v>
+      <c r="D2" s="2">
+        <v>6.8639617E-2</v>
       </c>
       <c r="E2">
         <v>0.08</v>
@@ -592,23 +606,27 @@
         <v>16.5</v>
       </c>
       <c r="H2">
-        <f>((G2*D2)^0.89)*(F2^0.54)*5037</f>
-        <v>1391.2343608637666</v>
+        <f>((L2*D2)^0.89)*(F2^0.54)*5037</f>
+        <v>77.531670255246809</v>
       </c>
       <c r="I2">
         <f>((G2*D2)^0.87)*(F2^0.51)*4433</f>
-        <v>1334.9259518025901</v>
+        <v>956.70816220423035</v>
       </c>
       <c r="J2">
         <f>((G2*D2)^0.91)*(F2^0.57)*5641</f>
-        <v>1429.0694789530653</v>
+        <v>1008.6112290297435</v>
       </c>
       <c r="K2">
         <f>B2*F2</f>
         <v>0.20401800000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f>G2*0.0572</f>
+        <v>0.94379999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -618,38 +636,41 @@
       <c r="C3">
         <v>2.964</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">ABS(C3/B3)</f>
-        <v>0.24884560490303081</v>
+      <c r="D3" s="2">
+        <v>6.8639617E-2</v>
       </c>
       <c r="E3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F35" si="1">E3/2</f>
+        <f t="shared" ref="F3:F35" si="0">E3/2</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G3">
         <v>13</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="2">((G3*D3)^0.89)*(F3^0.54)*5037</f>
-        <v>2342.9118869769</v>
+        <f t="shared" ref="H3:H18" si="1">((L3*D3)^0.89)*(F3^0.54)*5037</f>
+        <v>58.3461711825327</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I35" si="3">((G3*D3)^0.87)*(F3^0.51)*4433</f>
-        <v>2227.2154386046109</v>
+        <f t="shared" ref="I3:I35" si="2">((G3*D3)^0.87)*(F3^0.51)*4433</f>
+        <v>726.31208647591836</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J35" si="4">((G3*D3)^0.91)*(F3^0.57)*5641</f>
-        <v>2429.1795286412193</v>
+        <f t="shared" ref="J3:J35" si="3">((G3*D3)^0.91)*(F3^0.57)*5641</f>
+        <v>752.39595232938836</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K35" si="5">B3*F3</f>
+        <f t="shared" ref="K3:K35" si="4">B3*F3</f>
         <v>0.41688500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f t="shared" ref="L3:L35" si="5">G3*0.0572</f>
+        <v>0.74360000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -659,38 +680,41 @@
       <c r="C4">
         <v>-3.13</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1.1793519216277317</v>
+      <c r="D4" s="2">
+        <v>9.7948652999999997E-2</v>
       </c>
       <c r="E4">
         <v>0.05</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4">
         <v>19</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>10937.36998023321</v>
+        <f t="shared" si="1"/>
+        <v>93.588257745522327</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>10103.981516870768</v>
+        <f t="shared" si="2"/>
+        <v>1159.6620247570972</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
-        <v>11669.256681085997</v>
+        <f t="shared" si="3"/>
+        <v>1212.4289208696646</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6350000000000006E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>1.0868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -700,38 +724,41 @@
       <c r="C5">
         <v>2.08</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.26229508196721313</v>
+      <c r="D5" s="2">
+        <v>6.3994443999999998E-2</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="G5">
         <v>7.2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>2558.1211247529536</v>
+        <f t="shared" si="1"/>
+        <v>57.114576219059558</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>2381.9049757209318</v>
+        <f t="shared" si="2"/>
+        <v>698.10504772510797</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>2707.8693454604077</v>
+        <f t="shared" si="3"/>
+        <v>750.09822422818877</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.41184000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -741,38 +768,41 @@
       <c r="C6">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5.1910828025477709E-2</v>
+      <c r="D6" s="2">
+        <v>8.6309148000000002E-2</v>
       </c>
       <c r="E6">
         <v>0.08</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G6">
         <v>8.3000000000000007</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>418.64261019593084</v>
+        <f t="shared" si="1"/>
+        <v>51.57472159225501</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>412.686905748002</v>
+        <f t="shared" si="2"/>
+        <v>642.26714875511914</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
-        <v>418.57771138103402</v>
+        <f t="shared" si="3"/>
+        <v>664.81846566044851</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37680000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.47476000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -782,38 +812,41 @@
       <c r="C7">
         <v>0.156</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3.8104543234000976E-2</v>
+      <c r="D7" s="2">
+        <v>2.7036277000000001E-2</v>
       </c>
       <c r="E7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G7">
         <v>19</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>618.19959481632657</v>
+        <f t="shared" si="1"/>
+        <v>35.692304962058365</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>605.53304448987683</v>
+        <f t="shared" si="2"/>
+        <v>449.24355857505429</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
-        <v>622.05604311188529</v>
+        <f t="shared" si="3"/>
+        <v>455.21056112586922</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14329000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>1.0868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -823,38 +856,41 @@
       <c r="C8">
         <v>2.5489999999999999</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.27751769188894937</v>
+      <c r="D8" s="2">
+        <v>6.5121129999999999E-2</v>
       </c>
       <c r="E8">
         <v>0.05</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G8">
         <v>9.6999999999999993</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1658.8804906480393</v>
+        <f t="shared" si="1"/>
+        <v>35.775143176488129</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>1598.826844965175</v>
+        <f t="shared" si="2"/>
+        <v>452.97749091227718</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
-        <v>1696.4407534961442</v>
+        <f t="shared" si="3"/>
+        <v>453.55623056178007</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22962500000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.55484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -864,38 +900,41 @@
       <c r="C9">
         <v>1.87</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.17266851338873501</v>
+      <c r="D9" s="2">
+        <v>9.0654527999999998E-2</v>
       </c>
       <c r="E9">
         <v>0.25</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>1178.8443153922931</v>
+        <f t="shared" si="1"/>
+        <v>52.059006020700508</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1112.4729781424755</v>
+        <f t="shared" si="2"/>
+        <v>635.1011458678945</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
-        <v>1231.2134911248061</v>
+        <f t="shared" si="3"/>
+        <v>685.00516355592322</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.35375</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.2288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -905,38 +944,41 @@
       <c r="C10">
         <v>-0.79600000000000004</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.14884068810770382</v>
+      <c r="D10" s="2">
+        <v>3.4631851999999998E-2</v>
       </c>
       <c r="E10">
         <v>0.04</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="G10">
         <v>13.3</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1118.6092197223022</v>
+        <f t="shared" si="1"/>
+        <v>23.942635977648269</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>1092.0482038566108</v>
+        <f t="shared" si="2"/>
+        <v>307.12688174032684</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
-        <v>1129.340516973047</v>
+        <f t="shared" si="3"/>
+        <v>299.62020226456468</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10696</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.7607600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -946,38 +988,41 @@
       <c r="C11">
         <v>1.821</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.2072379651758279</v>
+      <c r="D11" s="2">
+        <v>0.127020622</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="G11">
         <v>15.7</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>2855.1185000848177</v>
+        <f t="shared" si="1"/>
+        <v>144.70947858783455</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>2684.9329148226611</v>
+        <f t="shared" si="2"/>
+        <v>1753.7824331338898</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>2992.4352815293482</v>
+        <f t="shared" si="3"/>
+        <v>1916.7401486254323</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.43935000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.89803999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -987,38 +1032,41 @@
       <c r="C12">
         <v>1.232</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.15407703851925961</v>
+      <c r="D12" s="2">
+        <v>9.0577886999999996E-2</v>
       </c>
       <c r="E12">
         <v>0.08</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G12">
         <v>5.8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>801.34957579745628</v>
+        <f t="shared" si="1"/>
+        <v>39.135192189412443</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>778.50727218186682</v>
+        <f t="shared" si="2"/>
+        <v>490.38816730745128</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>813.00137161389591</v>
+        <f t="shared" si="3"/>
+        <v>501.34877428485134</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31984000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.33176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1028,38 +1076,41 @@
       <c r="C13">
         <v>2.4830000000000001</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.34698155394074903</v>
+      <c r="D13" s="2">
+        <v>0.14215865799999999</v>
       </c>
       <c r="E13">
         <v>0.21</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
       <c r="G13">
         <v>2.2000000000000002</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>1172.8515423559199</v>
+        <f t="shared" si="1"/>
+        <v>41.53565603024402</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1110.3977252081195</v>
+        <f t="shared" si="2"/>
+        <v>510.88692754366593</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>1221.0050284926572</v>
+        <f t="shared" si="3"/>
+        <v>542.07871697528196</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.75137999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.12584000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1069,38 +1120,41 @@
       <c r="C14">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>9.4745366204786741E-2</v>
+      <c r="D14" s="2">
+        <v>0.106707963</v>
       </c>
       <c r="E14">
         <v>0.09</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G14">
         <v>7.5</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>696.38247590058609</v>
+        <f t="shared" si="1"/>
+        <v>60.658110319324706</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>677.24351324216218</v>
+        <f t="shared" si="2"/>
+        <v>751.0531192629013</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>705.7660168228216</v>
+        <f t="shared" si="3"/>
+        <v>786.41555870269394</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.50012999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1110,38 +1164,41 @@
       <c r="C15">
         <v>-3.7120000000000002</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.2202498356344511</v>
+      <c r="D15" s="2">
+        <v>7.4785412999999995E-2</v>
       </c>
       <c r="E15">
         <v>0.33</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="G15">
         <v>1.5</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3260.4226069253673</v>
+        <f t="shared" si="1"/>
+        <v>21.286977675291602</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>2992.4324633916985</v>
+        <f t="shared" si="2"/>
+        <v>263.65416603861712</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>3501.3325668790599</v>
+        <f t="shared" si="3"/>
+        <v>275.89153109954043</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.50192999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1151,38 +1208,41 @@
       <c r="C16">
         <v>3.6859999999999999</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.41938787120263965</v>
+      <c r="D16" s="2">
+        <v>4.21359E-4</v>
       </c>
       <c r="E16">
         <v>0.28000000000000003</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="G16">
         <v>1.4</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>1084.583924169478</v>
+        <f t="shared" si="1"/>
+        <v>0.18245595058942132</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>1023.364209864544</v>
+        <f t="shared" si="2"/>
+        <v>2.5223299661198331</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>1132.9377057470085</v>
+        <f t="shared" si="3"/>
+        <v>2.1186497320458444</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2304600000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>8.0079999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1192,38 +1252,41 @@
       <c r="C17">
         <v>1.871</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.64762893734856353</v>
+      <c r="D17" s="2">
+        <v>0.18837980400000001</v>
       </c>
       <c r="E17">
         <v>0.2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="G17">
         <v>0.7</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>718.43844649524772</v>
+        <f t="shared" si="1"/>
+        <v>18.757382530040388</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>688.31440705437592</v>
+        <f t="shared" si="2"/>
+        <v>235.07849547253727</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>739.09829374780873</v>
+        <f t="shared" si="3"/>
+        <v>240.25728561099112</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.28889999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>4.0039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1233,38 +1296,41 @@
       <c r="C18">
         <v>2.04</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.43119847812301842</v>
+      <c r="D18" s="2">
+        <v>0.13828004099999999</v>
       </c>
       <c r="E18">
         <v>0.23</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.115</v>
       </c>
       <c r="G18">
         <v>1.6</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1125.8441990827484</v>
+        <f t="shared" si="1"/>
+        <v>32.060773024530157</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>1065.1412294069387</v>
+        <f t="shared" si="2"/>
+        <v>396.00327669796849</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>1172.8955068302625</v>
+        <f t="shared" si="3"/>
+        <v>416.67188524613499</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.54406500000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>9.1520000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1274,38 +1340,41 @@
       <c r="C19">
         <v>5.0590000000000002</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.2355652821754517</v>
+      <c r="D19" s="2">
+        <v>0.13828004099999999</v>
       </c>
       <c r="E19">
         <v>0.03</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G19">
         <v>5.0999999999999996</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>614.01323205767994</v>
+        <f>((L19*D19)^0.89)*(F19^0.54)*5037</f>
+        <v>29.947261010457705</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>610.6989085302032</v>
+        <f t="shared" si="2"/>
+        <v>384.19445395705742</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>608.46870478414212</v>
+        <f t="shared" si="3"/>
+        <v>374.72107759633894</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.32213999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.29171999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1315,38 +1384,41 @@
       <c r="C20">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>5.3872053872053877E-2</v>
+      <c r="D20" s="2">
+        <v>0.18077801600000001</v>
       </c>
       <c r="E20">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G20">
         <v>9.6999999999999993</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>462.49717353673998</v>
+        <f t="shared" ref="H20:H35" si="6">((L20*D20)^0.89)*(F20^0.54)*5037</f>
+        <v>106.44802350183261</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>455.98453834763592</v>
+        <f t="shared" si="2"/>
+        <v>1307.3158555345235</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>462.35757635420845</v>
+        <f t="shared" si="3"/>
+        <v>1391.3605120384132</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.30145500000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.55484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1356,38 +1428,41 @@
       <c r="C21">
         <v>1.52</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.23471278567016676</v>
+      <c r="D21" s="2">
+        <v>0.18077801600000001</v>
       </c>
       <c r="E21">
         <v>0.06</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G21">
         <v>13.5</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>2116.372881378586</v>
+        <f t="shared" si="6"/>
+        <v>131.44877586986846</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>2022.0268604977689</v>
+        <f t="shared" si="2"/>
+        <v>1611.1524481003712</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>2183.2696861419699</v>
+        <f t="shared" si="3"/>
+        <v>1721.5571904303308</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19427999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.7722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1397,38 +1472,41 @@
       <c r="C22">
         <v>1.8069999999999999</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.31192818919385462</v>
+      <c r="D22" s="2">
+        <v>0.15487515499999999</v>
       </c>
       <c r="E22">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G22">
         <v>10.199999999999999</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>2308.5084208737612</v>
+        <f t="shared" si="6"/>
+        <v>97.00387300624844</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>2195.2404994117501</v>
+        <f t="shared" si="2"/>
+        <v>1193.8196124863653</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>2392.71377140297</v>
+        <f t="shared" si="3"/>
+        <v>1265.2735735392052</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20275500000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.58343999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1438,38 +1516,41 @@
       <c r="C23">
         <v>1.4179999999999999</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.23847965018499831</v>
+      <c r="D23" s="2">
+        <v>0.120621005</v>
       </c>
       <c r="E23">
         <v>0.04</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="G23">
         <v>7</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>961.16308847244215</v>
+        <f t="shared" si="6"/>
+        <v>41.059559773642739</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>941.54477469237145</v>
+        <f t="shared" si="2"/>
+        <v>520.35086877919002</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>967.08159991702087</v>
+        <f t="shared" si="3"/>
+        <v>520.08854855315826</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11892</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.40039999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1479,38 +1560,41 @@
       <c r="C24">
         <v>-0.65</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>7.3017299483262202E-2</v>
+      <c r="D24" s="2">
+        <v>0.19983920999999999</v>
       </c>
       <c r="E24">
         <v>0.14000000000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G24">
         <v>7.6</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>709.41100600209677</v>
+        <f t="shared" si="6"/>
+        <v>136.18751077468195</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>684.20457532446471</v>
+        <f t="shared" si="2"/>
+        <v>1642.8494610938674</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>724.96960572642229</v>
+        <f t="shared" si="3"/>
+        <v>1812.2653724537884</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.62314000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.43472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1520,38 +1604,41 @@
       <c r="C25">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.13585017835909632</v>
+      <c r="D25" s="2">
+        <v>0.148024304</v>
       </c>
       <c r="E25">
         <v>0.08</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G25">
         <v>11.1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>1276.5722125774903</v>
+        <f t="shared" si="6"/>
+        <v>107.96939245664353</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>1227.2744803081589</v>
+        <f t="shared" si="2"/>
+        <v>1322.4189152575084</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>1308.7569448600455</v>
+        <f t="shared" si="3"/>
+        <v>1415.0678392691038</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.13455999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.63492000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1561,38 +1648,41 @@
       <c r="C26">
         <v>2.0539999999999998</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.27696871628910458</v>
+      <c r="D26" s="2">
+        <v>6.0716812000000002E-2</v>
       </c>
       <c r="E26">
         <v>0.05</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G26">
         <v>8</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>1394.9960667330381</v>
+        <f t="shared" si="6"/>
+        <v>28.316337782782959</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>1349.7400952081018</v>
+        <f t="shared" si="2"/>
+        <v>360.42442970617964</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
-        <v>1421.0381791984744</v>
+        <f t="shared" si="3"/>
+        <v>357.11241344290966</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.18540000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.45760000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1602,38 +1692,41 @@
       <c r="C27">
         <v>0.40300000000000002</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>8.4557280738564833E-2</v>
+      <c r="D27" s="2">
+        <v>3.6441335999999998E-2</v>
       </c>
       <c r="E27">
         <v>0.28000000000000003</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="G27">
         <v>1.9</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>342.24427511080694</v>
+        <f t="shared" si="6"/>
+        <v>12.678654848521047</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>331.40575007285327</v>
+        <f t="shared" si="2"/>
+        <v>159.34032370129546</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>348.35518120493919</v>
+        <f t="shared" si="3"/>
+        <v>161.94429802472044</v>
       </c>
       <c r="K27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66724000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.10868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1643,38 +1736,41 @@
       <c r="C28">
         <v>-0.94399999999999995</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.24304840370751801</v>
+      <c r="D28" s="2">
+        <v>6.4893030000000001E-3</v>
       </c>
       <c r="E28">
         <v>0.1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="G28">
         <v>5.9</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>1377.0211526763446</v>
+        <f t="shared" si="6"/>
+        <v>4.2915361599306605</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>1316.3349009108292</v>
+        <f t="shared" si="2"/>
+        <v>56.289318361833175</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>1419.7921030471373</v>
+        <f t="shared" si="3"/>
+        <v>52.522399755825568</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19420000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.33748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1684,38 +1780,41 @@
       <c r="C29">
         <v>2.0579999999999998</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.20273864643877448</v>
+      <c r="D29" s="2">
+        <v>4.6525835000000001E-2</v>
       </c>
       <c r="E29">
         <v>0.32</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.62416</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1725,38 +1824,41 @@
       <c r="C30">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.10451977401129944</v>
+      <c r="D30" s="2">
+        <v>8.5015139999999999E-3</v>
       </c>
       <c r="E30">
         <v>0.2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="G30">
         <v>1.4</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>262.61077044930323</v>
+        <f t="shared" si="6"/>
+        <v>2.2057691196959128</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>257.35451052390135</v>
+        <f t="shared" si="2"/>
+        <v>29.006202930212936</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>264.12117012994503</v>
+        <f t="shared" si="3"/>
+        <v>26.926147582746051</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31859999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>8.0079999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1766,38 +1868,41 @@
       <c r="C31">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>2.6709279762584182E-2</v>
+      <c r="D31" s="2">
+        <v>1.4833501000000001E-2</v>
       </c>
       <c r="E31">
         <v>0.18</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
       <c r="G31">
         <v>0.9</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>49.712783073706312</v>
+        <f t="shared" si="6"/>
+        <v>2.307958880713366</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>50.669718131880593</v>
+        <f t="shared" si="2"/>
+        <v>30.376265711634421</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
-        <v>48.072598152910608</v>
+        <f t="shared" si="3"/>
+        <v>28.149244874227179</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.78848999999999991</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>5.1480000000000005E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1807,38 +1912,41 @@
       <c r="C32">
         <v>-0.80400000000000005</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>9.4167252283907238E-2</v>
+      <c r="D32" s="2">
+        <v>7.7783465999999996E-2</v>
       </c>
       <c r="E32">
         <v>0.2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.85380000000000011</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1848,38 +1956,41 @@
       <c r="C33">
         <v>-0.69899999999999995</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.15129870129870129</v>
+      <c r="D33" s="2">
+        <v>6.7589499999999997E-3</v>
       </c>
       <c r="E33">
         <v>0.12</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="G33">
         <v>1.8</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>346.43318273619542</v>
+        <f t="shared" si="6"/>
+        <v>1.7070299434112837</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>340.48546152908739</v>
+        <f t="shared" si="2"/>
+        <v>22.784362506212165</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>347.41640682643555</v>
+        <f t="shared" si="3"/>
+        <v>20.530068327253307</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2772</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.10296000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1889,38 +2000,41 @@
       <c r="C34">
         <v>-9.1800000000000007E-2</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1.101379724055189E-2</v>
+      <c r="D34" s="2">
+        <v>1.4511245000000001E-2</v>
       </c>
       <c r="E34">
         <v>0.12</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="G34">
         <v>4.2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>71.513740307898885</v>
+        <f t="shared" si="6"/>
+        <v>7.1625080074982836</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>72.822738853649454</v>
+        <f t="shared" si="2"/>
+        <v>92.568839357311219</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
-        <v>69.218455872321272</v>
+        <f t="shared" si="3"/>
+        <v>88.963205018224045</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.50009999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.24024000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1930,38 +2044,41 @@
       <c r="C35">
         <v>-0.59099999999999997</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.14767616191904048</v>
+      <c r="D35" s="2">
+        <v>5.3067203E-2</v>
       </c>
       <c r="E35">
         <v>0.08</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G35">
         <v>5.0999999999999996</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>688.18952177157246</v>
+        <f t="shared" si="6"/>
+        <v>21.687005256460647</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>670.86390388563223</v>
+        <f t="shared" si="2"/>
+        <v>275.38049251211686</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>695.81152188977273</v>
+        <f t="shared" si="3"/>
+        <v>274.16435822506412</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16008</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.29171999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C36">
         <f>SUM(C2:C35)</f>
         <v>25.595771999999997</v>
